--- a/RQ2/RQ2_Arbitrate.xlsx
+++ b/RQ2/RQ2_Arbitrate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20349"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Document\GitHub\api-diff\label_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447712FB-C6F9-4D3E-8B9C-8388543A5F21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8442E636-F717-46A3-8E84-D520A94492B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{16D18E0A-771E-4348-AEA7-4F0330075EDA}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{16D18E0A-771E-4348-AEA7-4F0330075EDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,22 +18,17 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="185">
   <si>
     <t>id</t>
   </si>
@@ -353,78 +348,6 @@
   <si>
     <t>The submit method returns a Future.</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>xss-base line: score(1 for find, 0 for not find)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>xss-api difference tool:score(1 for find, 0 for not find)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>zcy-base line: score(1 for find, 0 for not find)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>zcy-api difference tool:score(1 for find, 0 for not find)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>zxx-base line: score(1 for find, 0 for not find)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>zxx-api difference tool:score(1 for find, 0 for not find)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lg-base line: score(1 for find, 0 for not find)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lg-api difference tool:score(1 for find, 0 for not find)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>zcyb1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>zcyd1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>zcyb0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>zcyd0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>xssb1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>xssd1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>zxxb1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>zxxd1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lgb1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lgd1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
@@ -769,6 +692,38 @@
   </si>
   <si>
     <t>b1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2-base line: score(1 for find, 0 for not find)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2-api difference tool:score(1 for find, 0 for not find)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>s3-base line: score(1 for find, 0 for not find)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>s3-api difference tool:score(1 for find, 0 for not find)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>s4-base line: score(1 for find, 0 for not find)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>s4-api difference tool:score(1 for find, 0 for not find)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1-base line: score(1 for find, 0 for not find)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1-api difference tool:score(1 for find, 0 for not find)</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1404,7 +1359,7 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E1" sqref="E1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1437,28 +1392,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1498,9 +1453,6 @@
       <c r="L2" s="3">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>92</v>
-      </c>
       <c r="O2">
         <f>COUNTIF(G:G,1)</f>
         <v>25</v>
@@ -1547,9 +1499,6 @@
       <c r="L3" s="20">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
-        <v>93</v>
-      </c>
       <c r="O3">
         <f>COUNTIF(H:H,1)</f>
         <v>29</v>
@@ -1596,9 +1545,6 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>94</v>
-      </c>
       <c r="O4">
         <f>COUNTIF(G:G,0)</f>
         <v>28</v>
@@ -1645,9 +1591,6 @@
       <c r="L5" s="22">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>95</v>
-      </c>
       <c r="O5">
         <f>COUNTIF(H:H,0)</f>
         <v>24</v>
@@ -1731,9 +1674,6 @@
       </c>
       <c r="L7" s="22">
         <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>96</v>
       </c>
       <c r="O7">
         <f>COUNTIF(E:E,1)</f>
@@ -1753,9 +1693,6 @@
       <c r="G8" s="3"/>
       <c r="I8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="N8" t="s">
-        <v>97</v>
-      </c>
       <c r="O8">
         <f>COUNTIF(F:F,1)</f>
         <v>28</v>
@@ -1843,9 +1780,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="N10" s="5"/>
       <c r="O10">
         <f>COUNTIF(I:I,1)</f>
         <v>20</v>
@@ -1893,9 +1828,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="N11" s="3"/>
       <c r="O11">
         <f>COUNTIF(J:J,1)</f>
         <v>24</v>
@@ -1952,9 +1885,6 @@
       <c r="L13" s="19">
         <v>0</v>
       </c>
-      <c r="N13" t="s">
-        <v>100</v>
-      </c>
       <c r="O13">
         <f>COUNTIF(K:K,1)</f>
         <v>32</v>
@@ -2000,9 +1930,6 @@
       </c>
       <c r="L14" s="3">
         <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>101</v>
       </c>
       <c r="O14">
         <f>COUNTIF(L:L,1)</f>
@@ -3662,7 +3589,7 @@
   <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="N2" sqref="N2:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3695,28 +3622,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="G1" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="H1" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="I1" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="L1" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3756,9 +3683,6 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
-        <v>92</v>
-      </c>
       <c r="O2">
         <f>COUNTIF(G:G,1)</f>
         <v>26</v>
@@ -3805,9 +3729,6 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
-        <v>93</v>
-      </c>
       <c r="O3">
         <f>COUNTIF(H:H,1)</f>
         <v>31</v>
@@ -3854,9 +3775,6 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>94</v>
-      </c>
       <c r="O4">
         <f>COUNTIF(G:G,0)</f>
         <v>27</v>
@@ -3903,9 +3821,6 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
-        <v>95</v>
-      </c>
       <c r="O5">
         <f>COUNTIF(H:H,0)</f>
         <v>22</v>
@@ -3989,9 +3904,6 @@
       </c>
       <c r="L7">
         <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>96</v>
       </c>
       <c r="O7">
         <f>COUNTIF(E:E,1)</f>
@@ -4007,9 +3919,6 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="N8" t="s">
-        <v>97</v>
-      </c>
       <c r="O8">
         <f>COUNTIF(F:F,1)</f>
         <v>34</v>
@@ -4097,9 +4006,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="N10" s="5"/>
       <c r="O10">
         <f>COUNTIF(I:I,1)</f>
         <v>21</v>
@@ -4147,9 +4054,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="N11" s="3"/>
       <c r="O11">
         <f>COUNTIF(J:J,1)</f>
         <v>30</v>
@@ -4202,9 +4107,6 @@
       <c r="L13">
         <v>0</v>
       </c>
-      <c r="N13" t="s">
-        <v>100</v>
-      </c>
       <c r="O13">
         <f>COUNTIF(K:K,1)</f>
         <v>33</v>
@@ -4250,9 +4152,6 @@
       </c>
       <c r="L14">
         <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>101</v>
       </c>
       <c r="O14">
         <f>COUNTIF(L:L,1)</f>
@@ -5910,8 +5809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8D05BF-BB5D-4EEE-9384-B7B341EABBE3}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5946,34 +5845,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>86</v>
+        <v>179</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="K1" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="L1" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="M1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="N1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -6019,9 +5918,6 @@
       <c r="N2">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
-        <v>92</v>
-      </c>
       <c r="Q2">
         <f>COUNTIF(G:G,1)</f>
         <v>26</v>
@@ -6074,9 +5970,6 @@
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
-        <v>93</v>
-      </c>
       <c r="Q3">
         <f>COUNTIF(H:H,1)</f>
         <v>31</v>
@@ -6129,9 +6022,6 @@
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="P4" t="s">
-        <v>94</v>
-      </c>
       <c r="Q4">
         <f>COUNTIF(G:G,0)</f>
         <v>27</v>
@@ -6184,9 +6074,6 @@
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="P5" t="s">
-        <v>95</v>
-      </c>
       <c r="Q5">
         <f>COUNTIF(H:H,0)</f>
         <v>22</v>
@@ -6283,9 +6170,6 @@
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="P7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q7">
         <f>COUNTIF(E:E,1)</f>
         <v>30</v>
@@ -6385,9 +6269,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="P9" s="5"/>
       <c r="Q9">
         <f>COUNTIF(I:I,1)</f>
         <v>21</v>
@@ -6441,9 +6323,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="P10" s="3"/>
       <c r="Q10">
         <f>COUNTIF(J:J,1)</f>
         <v>30</v>
@@ -6496,9 +6376,6 @@
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="P11" t="s">
-        <v>100</v>
-      </c>
       <c r="Q11">
         <f>COUNTIF(K:K,1)</f>
         <v>33</v>
@@ -6551,9 +6428,6 @@
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="P12" t="s">
-        <v>101</v>
-      </c>
       <c r="Q12">
         <f>COUNTIF(L:L,1)</f>
         <v>35</v>
@@ -6702,14 +6576,6 @@
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="P15" t="e">
-        <f>SUM(Q12,Q10,#REF!,Q3)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q15" t="e">
-        <f>P15/(53*4)</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -6799,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <f>COUNTIF(N:N,1)</f>
@@ -6854,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <f>COUNTIF(M:M,1)</f>
@@ -8452,6 +8318,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8459,9 +8326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1978DA07-1935-4BDF-BE14-D7D1BB575838}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8473,91 +8338,91 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -8565,10 +8430,10 @@
         <v>2395814</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3">
         <v>41</v>
@@ -8577,10 +8442,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -8663,7 +8528,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D3" s="3">
         <v>34</v>
@@ -8672,10 +8537,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -8758,7 +8623,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3">
         <v>52</v>
@@ -8767,10 +8632,10 @@
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -8853,7 +8718,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3">
         <v>3361</v>
@@ -8862,10 +8727,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>4</v>
@@ -8948,7 +8813,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D6" s="3">
         <v>64</v>
@@ -8957,10 +8822,10 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -9043,7 +8908,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D7" s="3">
         <v>61</v>
@@ -9052,10 +8917,10 @@
         <v>5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -9138,7 +9003,7 @@
         <v>34</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D8" s="3">
         <v>1476</v>
@@ -9147,10 +9012,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -9233,7 +9098,7 @@
         <v>38</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D9" s="3">
         <v>313</v>
@@ -9242,10 +9107,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -9328,7 +9193,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D10" s="3">
         <v>39</v>
@@ -9337,10 +9202,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -9423,7 +9288,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D11" s="6">
         <v>19</v>
@@ -9432,10 +9297,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -9518,7 +9383,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3">
         <v>16</v>
@@ -9527,10 +9392,10 @@
         <v>51</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -9613,7 +9478,7 @@
         <v>56</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D13" s="3">
         <v>87</v>
@@ -9622,10 +9487,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -9708,7 +9573,7 @@
         <v>61</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3">
         <v>71</v>
@@ -9717,10 +9582,10 @@
         <v>51</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -9803,7 +9668,7 @@
         <v>64</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D15" s="3">
         <v>14</v>
@@ -9812,10 +9677,10 @@
         <v>51</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="H15">
         <v>4</v>
@@ -9898,7 +9763,7 @@
         <v>67</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D16" s="4">
         <v>97</v>
@@ -9907,10 +9772,10 @@
         <v>51</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -9993,7 +9858,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="D17" s="6">
         <v>174</v>
@@ -10002,10 +9867,10 @@
         <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -10088,7 +9953,7 @@
         <v>74</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D18" s="3">
         <v>14</v>
@@ -10097,10 +9962,10 @@
         <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -10183,7 +10048,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D19" s="3">
         <v>13</v>
@@ -10192,10 +10057,10 @@
         <v>51</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -10278,7 +10143,7 @@
         <v>79</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D20" s="8">
         <v>111</v>
@@ -10287,10 +10152,10 @@
         <v>51</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="H20">
         <v>4</v>
@@ -10373,7 +10238,7 @@
         <v>81</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="D21" s="3">
         <v>31</v>
@@ -10382,10 +10247,10 @@
         <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H21">
         <v>4</v>

--- a/RQ2/RQ2_Arbitrate.xlsx
+++ b/RQ2/RQ2_Arbitrate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8442E636-F717-46A3-8E84-D520A94492B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AEE69E-1540-4151-840B-78C621895AE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{16D18E0A-771E-4348-AEA7-4F0330075EDA}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16D18E0A-771E-4348-AEA7-4F0330075EDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1358,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCFFB83-4660-43F2-97EC-0D5409A523C8}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1368,8 +1368,8 @@
     <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="40.25" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="51.5" customWidth="1"/>
+    <col min="6" max="6" width="56" customWidth="1"/>
     <col min="7" max="7" width="10.375" customWidth="1"/>
     <col min="8" max="8" width="11.375" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
@@ -3588,8 +3588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05670CB4-2B7C-41D0-A5D4-79606CF156C1}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="O3:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5810,7 +5810,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15:Q15"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5829,6 +5829,7 @@
     <col min="12" max="12" width="7.25" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="9.375" customWidth="1"/>
+    <col min="17" max="17" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
@@ -8326,9 +8327,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1978DA07-1935-4BDF-BE14-D7D1BB575838}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="33.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
